--- a/output/inference_results/test_sheets/batch_003/test_sheet (30).xlsx
+++ b/output/inference_results/test_sheets/batch_003/test_sheet (30).xlsx
@@ -451,7 +451,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>清洁度（清洁度）</t>
+          <t>清洁度</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -464,7 +464,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>霉菌（霉菌）</t>
+          <t>霉菌</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -477,7 +477,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>滴虫（滴虫）</t>
+          <t>滴虫</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -490,7 +490,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>线索细胞！（线索细胞）</t>
+          <t>线索细胞！</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -503,7 +503,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WBC#（白细胞）</t>
+          <t>AST/ALT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -515,14 +515,14 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>阴性~TRACE</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>鳞状上皮（鳞状上皮细胞（镜检））</t>
+          <t>鳞状上皮（鳞状上皮细胞</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
